--- a/uploads/Param.xlsx
+++ b/uploads/Param.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\old pc doc\KEED_Portfolio\KEED Design\ExCodeGen\Sample_Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A90DA2-EB13-4DC8-96DF-6896DDAA8A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B08B36-3FB1-4D07-952B-EC02B58EC394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
